--- a/Tables/paneliv_sp.xlsx
+++ b/Tables/paneliv_sp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FE52F-CF4E-48D1-9B8C-77DD828E82E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D9BB74-AB18-476E-BB0F-09B3E1C97913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
   </bookViews>
   <sheets>
     <sheet name="paneliv_sp" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,31 +811,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83B80B-01FE-4FF0-8625-92A702BBA6D0}">
-  <dimension ref="A2:V37"/>
+  <dimension ref="A2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="A2:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f>[1]paneliv_sp!A2</f>
         <v/>
@@ -877,20 +877,8 @@
         <f>[1]paneliv_sp!F2</f>
         <v>(5)</v>
       </c>
-      <c r="Q4" s="6">
-        <f>[1]paneliv_sp!Q2</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="6">
-        <f>[1]paneliv_sp!R2</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="6">
-        <f>[1]paneliv_sp!S2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -915,13 +903,8 @@
         <v>-0.00051</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]paneliv_sp!A6</f>
         <v/>
@@ -947,13 +930,8 @@
         <v>(0.0063)</v>
       </c>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -978,7 +956,7 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +981,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>[1]paneliv_sp!A25</f>
         <v>DepVarMean</v>
@@ -1029,7 +1007,7 @@
         <v>0.56</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1049,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1069,18 +1047,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1100,7 @@
         <v>(10)</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1147,7 +1125,7 @@
         <v>0.011</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1172,15 +1150,15 @@
         <v>(0.021)</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1183,7 @@
         <v>30331</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1208,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1255,7 +1233,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1275,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1295,18 +1273,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="6" t="str">
         <f>[1]paneliv_sp!L2</f>
@@ -1346,7 +1324,7 @@
         <v>(15)</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1349,7 @@
         <v>0.052</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1396,14 +1374,14 @@
         <v>(0.034)</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
@@ -1428,7 +1406,7 @@
         <v>30714</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1431,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1456,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1518,7 +1496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>

--- a/Tables/paneliv_sp.xlsx
+++ b/Tables/paneliv_sp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D9BB74-AB18-476E-BB0F-09B3E1C97913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DA39C-C1BF-400D-AFEB-608A67454BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11175" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
+    <workbookView xWindow="7110" yWindow="4380" windowWidth="21600" windowHeight="11175" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
   </bookViews>
   <sheets>
     <sheet name="paneliv_sp" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Number of municipalities</t>
   </si>
@@ -61,31 +61,31 @@
     <t>All</t>
   </si>
   <si>
-    <t>$=$ 1</t>
-  </si>
-  <si>
-    <t>$\leq 50$</t>
-  </si>
-  <si>
-    <t>[51-250]</t>
-  </si>
-  <si>
-    <t>$&gt;$ 250</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>DepVarMean</t>
   </si>
   <si>
-    <t>Panel A : Employers</t>
-  </si>
-  <si>
-    <t>Panel B : Employees</t>
-  </si>
-  <si>
-    <t>Panel C : Salaries</t>
+    <t>Employers</t>
+  </si>
+  <si>
+    <t>Self-employed</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>Wages</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,11 +166,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -190,6 +199,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -230,42 +248,6 @@
           <cell r="D2" t="str">
             <v>(3)</v>
           </cell>
-          <cell r="E2" t="str">
-            <v>(4)</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>(5)</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>(6)</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>(7)</v>
-          </cell>
-          <cell r="I2" t="str">
-            <v>(8)</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>(9)</v>
-          </cell>
-          <cell r="K2" t="str">
-            <v>(10)</v>
-          </cell>
-          <cell r="L2" t="str">
-            <v>(11)</v>
-          </cell>
-          <cell r="M2" t="str">
-            <v>(12)</v>
-          </cell>
-          <cell r="N2" t="str">
-            <v>(13)</v>
-          </cell>
-          <cell r="O2" t="str">
-            <v>(14)</v>
-          </cell>
-          <cell r="P2" t="str">
-            <v>(15)</v>
-          </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
@@ -275,43 +257,13 @@
             <v>-0.014*</v>
           </cell>
           <cell r="D5" t="str">
-            <v>-0.0039</v>
+            <v>-0.0031</v>
           </cell>
           <cell r="E5" t="str">
-            <v>0.0038</v>
+            <v>0.022</v>
           </cell>
           <cell r="F5" t="str">
-            <v>-0.00051</v>
-          </cell>
-          <cell r="G5" t="str">
-            <v>-0.0031</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>-0.014*</v>
-          </cell>
-          <cell r="I5" t="str">
-            <v>-0.0064</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v>0.010</v>
-          </cell>
-          <cell r="K5" t="str">
-            <v>0.011</v>
-          </cell>
-          <cell r="L5" t="str">
-            <v>0.022</v>
-          </cell>
-          <cell r="M5" t="str">
             <v>-0.016*</v>
-          </cell>
-          <cell r="N5" t="str">
-            <v>-0.00037</v>
-          </cell>
-          <cell r="O5" t="str">
-            <v>0.016</v>
-          </cell>
-          <cell r="P5" t="str">
-            <v>0.052</v>
           </cell>
         </row>
         <row r="6">
@@ -325,43 +277,13 @@
             <v>(0.0081)</v>
           </cell>
           <cell r="D6" t="str">
-            <v>(0.0033)</v>
+            <v>(0.0067)</v>
           </cell>
           <cell r="E6" t="str">
-            <v>(0.0055)</v>
+            <v>(0.019)</v>
           </cell>
           <cell r="F6" t="str">
-            <v>(0.0063)</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>(0.0067)</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>(0.0081)</v>
-          </cell>
-          <cell r="I6" t="str">
-            <v>(0.0051)</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>(0.014)</v>
-          </cell>
-          <cell r="K6" t="str">
-            <v>(0.021)</v>
-          </cell>
-          <cell r="L6" t="str">
-            <v>(0.019)</v>
-          </cell>
-          <cell r="M6" t="str">
             <v>(0.0085)</v>
-          </cell>
-          <cell r="N6" t="str">
-            <v>(0.0053)</v>
-          </cell>
-          <cell r="O6" t="str">
-            <v>(0.019)</v>
-          </cell>
-          <cell r="P6" t="str">
-            <v>(0.034)</v>
           </cell>
         </row>
         <row r="23">
@@ -375,39 +297,9 @@
             <v>30331</v>
           </cell>
           <cell r="E23" t="str">
-            <v>30331</v>
+            <v>30714</v>
           </cell>
           <cell r="F23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="I23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="J23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="K23" t="str">
-            <v>30331</v>
-          </cell>
-          <cell r="L23" t="str">
-            <v>30714</v>
-          </cell>
-          <cell r="M23" t="str">
-            <v>30714</v>
-          </cell>
-          <cell r="N23" t="str">
-            <v>30714</v>
-          </cell>
-          <cell r="O23" t="str">
-            <v>30714</v>
-          </cell>
-          <cell r="P23" t="str">
             <v>30714</v>
           </cell>
         </row>
@@ -422,43 +314,13 @@
             <v>3.01</v>
           </cell>
           <cell r="D25" t="str">
-            <v>3.51</v>
+            <v>6.05</v>
           </cell>
           <cell r="E25" t="str">
-            <v>1.15</v>
+            <v>5.61</v>
           </cell>
           <cell r="F25" t="str">
-            <v>0.56</v>
-          </cell>
-          <cell r="G25" t="str">
-            <v>6.05</v>
-          </cell>
-          <cell r="H25" t="str">
-            <v>3.01</v>
-          </cell>
-          <cell r="I25" t="str">
-            <v>5.28</v>
-          </cell>
-          <cell r="J25" t="str">
-            <v>3.73</v>
-          </cell>
-          <cell r="K25" t="str">
-            <v>2.58</v>
-          </cell>
-          <cell r="L25" t="str">
-            <v>5.61</v>
-          </cell>
-          <cell r="M25" t="str">
             <v>4.04</v>
-          </cell>
-          <cell r="N25" t="str">
-            <v>4.96</v>
-          </cell>
-          <cell r="O25" t="str">
-            <v>3.68</v>
-          </cell>
-          <cell r="P25" t="str">
-            <v>2.39</v>
           </cell>
         </row>
         <row r="26">
@@ -472,39 +334,9 @@
             <v>1626</v>
           </cell>
           <cell r="E26" t="str">
-            <v>1626</v>
+            <v>1642</v>
           </cell>
           <cell r="F26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="G26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="H26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="I26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="J26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="K26" t="str">
-            <v>1626</v>
-          </cell>
-          <cell r="L26" t="str">
-            <v>1642</v>
-          </cell>
-          <cell r="M26" t="str">
-            <v>1642</v>
-          </cell>
-          <cell r="N26" t="str">
-            <v>1642</v>
-          </cell>
-          <cell r="O26" t="str">
-            <v>1642</v>
-          </cell>
-          <cell r="P26" t="str">
             <v>1642</v>
           </cell>
         </row>
@@ -811,74 +643,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83B80B-01FE-4FF0-8625-92A702BBA6D0}">
-  <dimension ref="A2:Q37"/>
+  <dimension ref="A2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="str">
         <f>[1]paneliv_sp!A2</f>
         <v/>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="8" t="str">
         <f>[1]paneliv_sp!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="8" t="str">
         <f>[1]paneliv_sp!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="8" t="str">
         <f>[1]paneliv_sp!D2</f>
         <v>(3)</v>
       </c>
-      <c r="E4" s="6" t="str">
-        <f>[1]paneliv_sp!E2</f>
-        <v>(4)</v>
-      </c>
-      <c r="F4" s="6" t="str">
-        <f>[1]paneliv_sp!F2</f>
-        <v>(5)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -892,19 +709,11 @@
       </c>
       <c r="D5" s="1" t="str">
         <f>[1]paneliv_sp!D5</f>
-        <v>-0.0039</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f>[1]paneliv_sp!E5</f>
-        <v>0.0038</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <f>[1]paneliv_sp!F5</f>
-        <v>-0.00051</v>
-      </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-0.0031</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>[1]paneliv_sp!A6</f>
         <v/>
@@ -919,19 +728,11 @@
       </c>
       <c r="D6" s="1" t="str">
         <f>[1]paneliv_sp!D6</f>
-        <v>(0.0033)</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>[1]paneliv_sp!E6</f>
-        <v>(0.0055)</v>
-      </c>
-      <c r="F6" s="1" t="str">
-        <f>[1]paneliv_sp!F6</f>
-        <v>(0.0063)</v>
-      </c>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.0067)</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -947,16 +748,8 @@
         <f>[1]paneliv_sp!D23</f>
         <v>30331</v>
       </c>
-      <c r="E8" s="7" t="str">
-        <f>[1]paneliv_sp!E23</f>
-        <v>30331</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f>[1]paneliv_sp!F23</f>
-        <v>30331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -972,16 +765,8 @@
         <f>[1]paneliv_sp!D26</f>
         <v>1626</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>[1]paneliv_sp!E26</f>
-        <v>1626</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <f>[1]paneliv_sp!F26</f>
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>[1]paneliv_sp!A25</f>
         <v>DepVarMean</v>
@@ -996,18 +781,10 @@
       </c>
       <c r="D10" s="1" t="str">
         <f>[1]paneliv_sp!D25</f>
-        <v>3.51</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f>[1]paneliv_sp!E25</f>
-        <v>1.15</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <f>[1]paneliv_sp!F25</f>
-        <v>0.56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1020,14 +797,8 @@
       <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1040,198 +811,130 @@
       <c r="D12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="str">
-        <f>[1]paneliv_sp!G2</f>
-        <v>(6)</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f>[1]paneliv_sp!H2</f>
-        <v>(7)</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f>[1]paneliv_sp!I2</f>
-        <v>(8)</v>
-      </c>
-      <c r="E16" s="6" t="str">
-        <f>[1]paneliv_sp!J2</f>
-        <v>(9)</v>
-      </c>
-      <c r="F16" s="6" t="str">
-        <f>[1]paneliv_sp!K2</f>
-        <v>(10)</v>
-      </c>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>[1]paneliv_sp!G5</f>
-        <v>-0.0031</v>
+        <f>[1]paneliv_sp!E5</f>
+        <v>0.022</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>[1]paneliv_sp!H5</f>
-        <v>-0.014*</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>[1]paneliv_sp!I5</f>
-        <v>-0.0064</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>[1]paneliv_sp!J5</f>
-        <v>0.010</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f>[1]paneliv_sp!K5</f>
-        <v>0.011</v>
-      </c>
+        <f>[1]paneliv_sp!F5</f>
+        <v>-0.016*</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>[1]paneliv_sp!G6</f>
-        <v>(0.0067)</v>
+        <f>[1]paneliv_sp!E6</f>
+        <v>(0.019)</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>[1]paneliv_sp!H6</f>
-        <v>(0.0081)</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f>[1]paneliv_sp!I6</f>
-        <v>(0.0051)</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>[1]paneliv_sp!J6</f>
-        <v>(0.014)</v>
-      </c>
-      <c r="F18" s="1" t="str">
-        <f>[1]paneliv_sp!K6</f>
-        <v>(0.021)</v>
-      </c>
+        <f>[1]paneliv_sp!F6</f>
+        <v>(0.0085)</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>[1]paneliv_sp!G23</f>
-        <v>30331</v>
+        <f>[1]paneliv_sp!E23</f>
+        <v>30714</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f>[1]paneliv_sp!H23</f>
-        <v>30331</v>
-      </c>
-      <c r="D20" s="7" t="str">
-        <f>[1]paneliv_sp!I23</f>
-        <v>30331</v>
-      </c>
-      <c r="E20" s="7" t="str">
-        <f>[1]paneliv_sp!J23</f>
-        <v>30331</v>
-      </c>
-      <c r="F20" s="7" t="str">
-        <f>[1]paneliv_sp!K23</f>
-        <v>30331</v>
-      </c>
+        <f>[1]paneliv_sp!F23</f>
+        <v>30714</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f>[1]paneliv_sp!G26</f>
-        <v>1626</v>
+        <f>[1]paneliv_sp!E26</f>
+        <v>1642</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>[1]paneliv_sp!H26</f>
-        <v>1626</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f>[1]paneliv_sp!I26</f>
-        <v>1626</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f>[1]paneliv_sp!J26</f>
-        <v>1626</v>
-      </c>
-      <c r="F21" s="1" t="str">
-        <f>[1]paneliv_sp!K26</f>
-        <v>1626</v>
-      </c>
+        <f>[1]paneliv_sp!F26</f>
+        <v>1642</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f>[1]paneliv_sp!G25</f>
-        <v>6.05</v>
+        <f>[1]paneliv_sp!E25</f>
+        <v>5.61</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>[1]paneliv_sp!H25</f>
-        <v>3.01</v>
-      </c>
-      <c r="D22" s="1" t="str">
-        <f>[1]paneliv_sp!I25</f>
-        <v>5.28</v>
-      </c>
-      <c r="E22" s="1" t="str">
-        <f>[1]paneliv_sp!J25</f>
-        <v>3.73</v>
-      </c>
-      <c r="F22" s="1" t="str">
-        <f>[1]paneliv_sp!K25</f>
-        <v>2.58</v>
-      </c>
+        <f>[1]paneliv_sp!F25</f>
+        <v>4.04</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1243,15 +946,9 @@
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
@@ -1263,245 +960,24 @@
       <c r="C24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="6" t="str">
-        <f>[1]paneliv_sp!L2</f>
-        <v>(11)</v>
-      </c>
-      <c r="C28" s="6" t="str">
-        <f>[1]paneliv_sp!M2</f>
-        <v>(12)</v>
-      </c>
-      <c r="D28" s="6" t="str">
-        <f>[1]paneliv_sp!N2</f>
-        <v>(13)</v>
-      </c>
-      <c r="E28" s="6" t="str">
-        <f>[1]paneliv_sp!O2</f>
-        <v>(14)</v>
-      </c>
-      <c r="F28" s="6" t="str">
-        <f>[1]paneliv_sp!P2</f>
-        <v>(15)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f>[1]paneliv_sp!L5</f>
-        <v>0.022</v>
-      </c>
-      <c r="C29" s="1" t="str">
-        <f>[1]paneliv_sp!M5</f>
-        <v>-0.016*</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f>[1]paneliv_sp!N5</f>
-        <v>-0.00037</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f>[1]paneliv_sp!O5</f>
-        <v>0.016</v>
-      </c>
-      <c r="F29" s="1" t="str">
-        <f>[1]paneliv_sp!P5</f>
-        <v>0.052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1" t="str">
-        <f>[1]paneliv_sp!L6</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="C30" s="1" t="str">
-        <f>[1]paneliv_sp!M6</f>
-        <v>(0.0085)</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f>[1]paneliv_sp!N6</f>
-        <v>(0.0053)</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f>[1]paneliv_sp!O6</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="F30" s="1" t="str">
-        <f>[1]paneliv_sp!P6</f>
-        <v>(0.034)</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="7" t="str">
-        <f>[1]paneliv_sp!L23</f>
-        <v>30714</v>
-      </c>
-      <c r="C32" s="7" t="str">
-        <f>[1]paneliv_sp!M23</f>
-        <v>30714</v>
-      </c>
-      <c r="D32" s="7" t="str">
-        <f>[1]paneliv_sp!N23</f>
-        <v>30714</v>
-      </c>
-      <c r="E32" s="7" t="str">
-        <f>[1]paneliv_sp!O23</f>
-        <v>30714</v>
-      </c>
-      <c r="F32" s="7" t="str">
-        <f>[1]paneliv_sp!P23</f>
-        <v>30714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="str">
-        <f>[1]paneliv_sp!L26</f>
-        <v>1642</v>
-      </c>
-      <c r="C33" s="1" t="str">
-        <f>[1]paneliv_sp!M26</f>
-        <v>1642</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f>[1]paneliv_sp!N26</f>
-        <v>1642</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f>[1]paneliv_sp!O26</f>
-        <v>1642</v>
-      </c>
-      <c r="F33" s="1" t="str">
-        <f>[1]paneliv_sp!P26</f>
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="1" t="str">
-        <f>[1]paneliv_sp!L25</f>
-        <v>5.61</v>
-      </c>
-      <c r="C34" s="1" t="str">
-        <f>[1]paneliv_sp!M25</f>
-        <v>4.04</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f>[1]paneliv_sp!N25</f>
-        <v>4.96</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f>[1]paneliv_sp!O25</f>
-        <v>3.68</v>
-      </c>
-      <c r="F34" s="1" t="str">
-        <f>[1]paneliv_sp!P25</f>
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B26:F26"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tables/paneliv_sp.xlsx
+++ b/Tables/paneliv_sp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Statistics\P27\IMSS\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504DA39C-C1BF-400D-AFEB-608A67454BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2038932-2FDC-4A54-B06D-94539C56AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="4380" windowWidth="21600" windowHeight="11175" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
+    <workbookView xWindow="19090" yWindow="1800" windowWidth="19420" windowHeight="11500" xr2:uid="{754054C7-3ED2-47E5-9AEC-F82ED7E47689}"/>
   </bookViews>
   <sheets>
     <sheet name="paneliv_sp" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Number of municipalities</t>
   </si>
@@ -58,15 +58,6 @@
     <t>\checkmark</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DepVarMean</t>
-  </si>
-  <si>
     <t>Employers</t>
   </si>
   <si>
@@ -77,15 +68,6 @@
   </si>
   <si>
     <t>Employment</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>Wages</t>
   </si>
 </sst>
 </file>
@@ -109,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -124,17 +106,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -161,15 +132,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -179,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,27 +149,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -259,12 +211,6 @@
           <cell r="D5" t="str">
             <v>-0.0031</v>
           </cell>
-          <cell r="E5" t="str">
-            <v>0.022</v>
-          </cell>
-          <cell r="F5" t="str">
-            <v>-0.016*</v>
-          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -279,12 +225,6 @@
           <cell r="D6" t="str">
             <v>(0.0067)</v>
           </cell>
-          <cell r="E6" t="str">
-            <v>(0.019)</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>(0.0085)</v>
-          </cell>
         </row>
         <row r="23">
           <cell r="B23" t="str">
@@ -296,12 +236,6 @@
           <cell r="D23" t="str">
             <v>30331</v>
           </cell>
-          <cell r="E23" t="str">
-            <v>30714</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>30714</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
@@ -316,12 +250,6 @@
           <cell r="D25" t="str">
             <v>6.05</v>
           </cell>
-          <cell r="E25" t="str">
-            <v>5.61</v>
-          </cell>
-          <cell r="F25" t="str">
-            <v>4.04</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="B26" t="str">
@@ -332,12 +260,6 @@
           </cell>
           <cell r="D26" t="str">
             <v>1626</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>1642</v>
-          </cell>
-          <cell r="F26" t="str">
-            <v>1642</v>
           </cell>
         </row>
       </sheetData>
@@ -643,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE83B80B-01FE-4FF0-8625-92A702BBA6D0}">
-  <dimension ref="A2:O26"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,38 +581,38 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="3" t="str">
         <f>[1]paneliv_sp!A2</f>
         <v/>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="6" t="str">
         <f>[1]paneliv_sp!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="6" t="str">
         <f>[1]paneliv_sp!C2</f>
         <v>(2)</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="6" t="str">
         <f>[1]paneliv_sp!D2</f>
         <v>(3)</v>
       </c>
@@ -733,18 +655,18 @@
       <c r="O6" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="7" t="str">
+      <c r="B8" s="5" t="str">
         <f>[1]paneliv_sp!B23</f>
         <v>30331</v>
       </c>
-      <c r="C8" s="7" t="str">
+      <c r="C8" s="5" t="str">
         <f>[1]paneliv_sp!C23</f>
         <v>30331</v>
       </c>
-      <c r="D8" s="7" t="str">
+      <c r="D8" s="5" t="str">
         <f>[1]paneliv_sp!D23</f>
         <v>30331</v>
       </c>
@@ -799,185 +721,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>[1]paneliv_sp!E5</f>
-        <v>0.022</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>[1]paneliv_sp!F5</f>
-        <v>-0.016*</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="str">
-        <f>[1]paneliv_sp!E6</f>
-        <v>(0.019)</v>
-      </c>
-      <c r="C18" s="1" t="str">
-        <f>[1]paneliv_sp!F6</f>
-        <v>(0.0085)</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="str">
-        <f>[1]paneliv_sp!E23</f>
-        <v>30714</v>
-      </c>
-      <c r="C20" s="7" t="str">
-        <f>[1]paneliv_sp!F23</f>
-        <v>30714</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f>[1]paneliv_sp!E26</f>
-        <v>1642</v>
-      </c>
-      <c r="C21" s="1" t="str">
-        <f>[1]paneliv_sp!F26</f>
-        <v>1642</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f>[1]paneliv_sp!E25</f>
-        <v>5.61</v>
-      </c>
-      <c r="C22" s="1" t="str">
-        <f>[1]paneliv_sp!F25</f>
-        <v>4.04</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
